--- a/individual_case_outputs/avey/393.xlsx
+++ b/individual_case_outputs/avey/393.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>functional amenorrhea</t>
+          <t>secondary ovarian insufficiency</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>secondary amenorrhea</t>
+          <t>secondary ovarian insufficiency</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>secondary ovarian insufficiency</t>
+          <t>menopause</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>secondary ovarian insufficiency</t>
+          <t>menopause</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -726,11 +726,7 @@
           <t>cellular changes of the pituitary</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>hypothalamic amenorrhea</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
@@ -750,7 +746,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>hyperthyroidism</t>
+          <t>hashimoto thyroiditis</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -791,11 +787,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>secondary ovarian insufficiency</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -807,7 +799,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>secondary ovarian insufficiency</t>
+          <t>asherman syndrome</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -856,7 +848,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>hypopituitarism</t>
+          <t>secondary ovarian insufficiency</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
